--- a/Учет рабочего времени Гушан.xlsx
+++ b/Учет рабочего времени Гушан.xlsx
@@ -362,13 +362,14 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C2" s="1">
-        <v>0.51736111111111105</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>55</v>
+      <c r="G2" s="1">
+        <f>C2-B2</f>
+        <v>6.0416666666666619E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Учет рабочего времени Гушан.xlsx
+++ b/Учет рабочего времени Гушан.xlsx
@@ -349,7 +349,7 @@
   <dimension ref="B2:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,14 +362,14 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C2" s="1">
-        <v>0.5395833333333333</v>
+        <v>0.54305555555555551</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1">
         <f>C2-B2</f>
-        <v>6.0416666666666619E-2</v>
+        <v>6.3888888888888828E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Учет рабочего времени Гушан.xlsx
+++ b/Учет рабочего времени Гушан.xlsx
@@ -24,17 +24,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>подготовка "песочницы"</t>
+  </si>
+  <si>
+    <t>Sage50 Install &amp; Try</t>
+  </si>
+  <si>
+    <t>Scheduler core</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -51,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,13 +74,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G2"/>
+  <dimension ref="B1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -357,22 +384,62 @@
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="2">
+        <f>SUM(G2:G340)</f>
+        <v>0.10902777777777772</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.54305555555555551</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <f>C2-B2</f>
         <v>6.3888888888888828E-2</v>
       </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C3-B3</f>
+        <v>1.1805555555555514E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <f>C4-B4</f>
+        <v>3.3333333333333381E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>